--- a/pred_ohlcv/54_21/2020-01-23 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>315539.359708651</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>365405.933208651</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>389566.533808651</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>389429.135308651</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>389480.234008651</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>385648.682804046</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>383152.624304046</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>456608.7925713589</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>460259.1653713589</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>464361.8250713589</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>442579.2161713589</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>442703.9560713589</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>443703.9560713589</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>434742.618771359</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>434794.987471359</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>439763.962128164</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>440114.628728164</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>433930.8768281639</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>428684.5963281639</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>438776.3491281639</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>442118.5040713589</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>441020.5028713589</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>444759.6923713589</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>441911.007971359</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>432815.7796713589</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>432823.6215713589</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>432296.8354713589</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>425754.5088713589</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>423413.7194713589</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>426554.5437713588</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>427848.5701713588</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>426140.2001713588</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>426912.8942713588</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>430789.7291096178</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>428296.4616096178</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>427836.9267096178</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>427984.5890096178</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>432971.6846096178</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>437491.1517096178</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>437598.9222096178</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>449361.4865096178</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>452790.6116096178</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>452693.9992096178</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>482381.2394679749</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>510084.4730679748</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>502268.7847679749</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>502512.1821679749</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>500061.5720679749</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>499644.8500679749</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>522117.9660679749</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>522476.1121679749</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>520450.9167679748</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>520420.9332679749</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>507811.9747679749</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>507750.2770679749</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>507287.8732679749</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>511191.9797679749</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>513680.198367975</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>512080.970567975</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>502672.7293679749</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>513354.2290679749</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>514197.6215679749</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>523221.2303679749</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>522573.0889679749</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>544737.3829679748</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>554431.1546679748</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>638358.9318730567</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>640176.6266730567</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>640186.6266730567</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>636811.4335730567</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>636922.2489730567</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>631307.7245730567</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>633631.5998730566</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>635997.5660730567</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>637809.9243730566</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>624473.8863730567</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>624561.0414730567</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>623905.3776730567</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>620117.7619730567</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>609961.0848730567</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>606343.0223730567</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>606346.0223730567</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>596414.2506730567</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>610126.8544068037</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>608768.1982068038</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>600967.8931068038</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>600839.4152099658</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>600169.8986099658</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>600273.4289099658</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>441718.9550021347</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>453959.4866021348</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>450822.0461021347</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>469537.1958021348</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>469422.5885021348</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>469425.5074021348</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>470396.6380021347</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>470438.7899021347</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>473543.1832021347</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>509462.0314436047</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>509725.5946436047</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>508771.2033436047</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>510971.5392436047</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>452200.9024436047</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>449468.7394436047</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>451852.6188436047</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>450856.8499436047</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>460910.9953436047</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>460223.1728436047</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>462506.4667436047</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>462401.0911436047</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>460478.8186436046</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>457315.1142436047</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>454993.3029436046</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>457626.0341436046</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>457600.0600436046</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>462968.5679436047</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>463179.5352436047</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>464411.0329436047</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>463707.6611436047</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>463725.6490436047</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>411731.1456436046</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>407798.1416436046</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>353579.6419006885</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>355228.0021006885</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>351479.8711065585</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>352642.1248065585</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>354161.6374000605</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>354247.2215000605</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>348918.7425000604</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>342704.4054000604</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>342209.6305000603</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>345662.2122000603</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>304571.2900318572</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>304576.2900318572</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>304571.7117318572</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>304566.4457318572</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>304126.0212318572</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>303997.3955318572</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>23298.88388638317</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>23231.88388638317</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>33636.48548638317</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>33379.84048638317</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>59945.66898490817</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>71112.24410387318</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>70580.46760387317</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>78000.72506191817</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>77409.55346191817</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>91901.85345547617</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>91275.42965547617</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>92138.51655053017</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>92235.03753960416</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>79020.46203960416</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>68614.52993960415</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>64614.94823960415</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>315539.359708651</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>365405.933208651</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>389566.533808651</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>389429.135308651</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>389480.234008651</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>385648.682804046</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>383152.624304046</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>456608.7925713589</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>460259.1653713589</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>464361.8250713589</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>442579.2161713589</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>442703.9560713589</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>443703.9560713589</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>434742.618771359</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>434794.987471359</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>439763.962128164</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>440114.628728164</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>433930.8768281639</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>428684.5963281639</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>438776.3491281639</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>442118.5040713589</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>441020.5028713589</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>444759.6923713589</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>441911.007971359</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>432815.7796713589</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>432823.6215713589</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>432296.8354713589</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>425754.5088713589</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>423413.7194713589</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>426554.5437713588</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>427848.5701713588</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>426140.2001713588</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>426912.8942713588</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>430789.7291096178</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>428296.4616096178</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>427836.9267096178</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>427984.5890096178</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>432971.6846096178</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>437491.1517096178</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>437598.9222096178</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>449361.4865096178</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>452790.6116096178</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>452693.9992096178</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>482381.2394679749</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>510084.4730679748</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>502268.7847679749</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>502512.1821679749</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>500061.5720679749</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>499644.8500679749</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>522117.9660679749</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>522476.1121679749</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>520450.9167679748</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>520420.9332679749</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>507811.9747679749</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>507750.2770679749</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>507287.8732679749</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>511191.9797679749</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>513680.198367975</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>512080.970567975</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>502672.7293679749</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>513354.2290679749</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>514197.6215679749</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>523221.2303679749</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>522573.0889679749</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>544737.3829679748</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>554431.1546679748</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>576351.9962914247</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>569486.2436914247</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>592235.0035914247</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>638358.9318730567</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>640176.6266730567</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>640186.6266730567</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>636811.4335730567</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>636922.2489730567</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>631270.9376730567</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>631307.7245730567</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>633631.5998730566</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>635997.5660730567</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>637809.9243730566</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>624473.8863730567</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>624561.0414730567</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>623905.3776730567</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>620117.7619730567</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>609961.0848730567</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>606343.0223730567</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>606346.0223730567</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>596414.2506730567</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>610126.8544068037</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>608768.1982068038</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>600967.8931068038</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>598168.0612068038</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>600169.8986099658</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>441718.9550021347</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>453959.4866021348</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>450822.0461021347</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>469537.1958021348</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>469422.5885021348</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>469425.5074021348</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>470396.6380021347</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>470438.7899021347</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>473543.1832021347</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>509462.0314436047</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>509725.5946436047</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>508771.2033436047</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>510971.5392436047</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>452200.9024436047</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>449468.7394436047</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>451852.6188436047</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>450856.8499436047</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>460910.9953436047</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>460223.1728436047</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>462506.4667436047</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>462401.0911436047</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>460478.8186436046</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>457315.1142436047</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>454993.3029436046</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>457626.0341436046</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>457600.0600436046</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>462968.5679436047</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>463179.5352436047</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>464411.0329436047</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>463707.6611436047</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>463725.6490436047</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>411731.1456436046</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>407798.1416436046</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>353579.6419006885</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>355228.0021006885</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>351479.8711065585</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>352642.1248065585</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>354161.6374000605</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>354247.2215000605</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>348918.7425000604</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>342704.4054000604</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>342209.6305000603</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>345662.2122000603</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>304571.2900318572</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>304576.2900318572</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>304571.7117318572</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>304566.4457318572</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>304126.0212318572</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>303997.3955318572</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>24310.20188638317</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>23298.88388638317</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>23231.88388638317</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>33636.48548638317</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>33379.84048638317</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>92138.51655053017</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>79020.46203960416</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
